--- a/DKNG.xlsx
+++ b/DKNG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846B697A-99C9-4CF7-B478-ED774C652254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8930DBB2-B34A-4A75-A510-FFD2EB8A6D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{AA42F6BA-6E3A-4D2B-837D-B4F01F2F060C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AA42F6BA-6E3A-4D2B-837D-B4F01F2F060C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -309,6 +309,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -647,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B77A4C-EC84-45CB-BEFB-F58915D984EC}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -669,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>44.47</v>
+        <v>42.79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -677,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>489.95622100000003</v>
+        <v>496.28563100000002</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,7 +693,7 @@
       </c>
       <c r="G4" s="1">
         <f>+G2*G3</f>
-        <v>21788.353147870002</v>
+        <v>21236.062150490001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -703,11 +704,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="1">
-        <f>788.287+16.499</f>
-        <v>804.78600000000006</v>
+        <v>1119.74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,11 +715,11 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <f>1256.429+22.033</f>
-        <v>1278.462</v>
+        <f>585.483+1257.086+10.566</f>
+        <v>1853.135</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
       </c>
       <c r="G7" s="1">
         <f>+G4-G5+G6</f>
-        <v>22262.029147870002</v>
+        <v>21969.457150489998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -755,11 +755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD405D-67F6-4575-A774-550F7957953B}">
   <dimension ref="A1:BX243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V36" sqref="V36"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,11 +838,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>3.4</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>4.3</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -923,11 +927,15 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>114</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>108</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1104,7 +1112,9 @@
       <c r="J6" s="1">
         <v>14901.643</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>13830.391</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1186,7 +1196,7 @@
         <v>4.5466847519183541E-2</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" ref="D7:J7" si="0">+D8/D6</f>
+        <f t="shared" ref="D7:K7" si="0">+D8/D6</f>
         <v>6.981961942042493E-2</v>
       </c>
       <c r="E7" s="7">
@@ -1213,7 +1223,10 @@
         <f t="shared" si="0"/>
         <v>5.5362552974863248E-2</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3769491404834469E-2</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1326,7 +1339,9 @@
       <c r="J8" s="1">
         <v>824.99300000000005</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>881.95699999999999</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1427,7 +1442,9 @@
       <c r="J9" s="1">
         <v>425.79899999999998</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>423.471</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1528,7 +1545,9 @@
       <c r="J10" s="1">
         <v>141.88999999999999</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>103.378</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1638,40 +1657,39 @@
         <v>1392.6819999999998</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" ref="K11" si="15">+SUM(K8:K10)</f>
+        <v>1408.806</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" ref="L11" si="15">+SUM(L8:L10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="6">
-        <f t="shared" ref="L11" si="16">+SUM(L8:L10)</f>
+      <c r="M11" s="6">
+        <f t="shared" ref="M11" si="16">+SUM(M8:M10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" ref="M11" si="17">+SUM(M8:M10)</f>
-        <v>0</v>
-      </c>
       <c r="N11" s="6">
-        <f t="shared" ref="N11" si="18">+SUM(N8:N10)</f>
+        <f t="shared" ref="N11" si="17">+SUM(N8:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="6">
-        <f t="shared" ref="P11:T11" si="19">+SUM(P8:P10)</f>
+        <f t="shared" ref="P11:T11" si="18">+SUM(P8:P10)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2240.4610000000002</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>3665.393</v>
       </c>
       <c r="U11" s="6">
@@ -1742,11 +1760,15 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>710.06899999999996</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>843.803</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1824,14 +1846,38 @@
         <v>41</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:J13" si="19">+D11-D12</f>
+        <v>874.92700000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="19"/>
+        <v>789.95699999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="19"/>
+        <v>1230.857</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="19"/>
+        <v>464.92699999999991</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="19"/>
+        <v>1104.441</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="19"/>
+        <v>1095.4899999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="19"/>
+        <v>1392.6819999999998</v>
+      </c>
+      <c r="K13" s="1">
+        <f>+K11-K12</f>
+        <v>565.00300000000004</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1924,11 +1970,15 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>340.69900000000001</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>343.68</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2009,11 +2059,15 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>88.814999999999998</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>103.26</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2094,11 +2148,15 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>174.251</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>164.39400000000001</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2178,34 +2236,61 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:N17" si="21">+F13-SUM(F14:F16)</f>
+        <v>1230.857</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="21"/>
+        <v>-138.83800000000008</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="21"/>
+        <v>1104.441</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="21"/>
+        <v>1095.4899999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="21"/>
+        <v>1392.6819999999998</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="21"/>
+        <v>-46.331000000000017</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1">
-        <f t="shared" ref="P17:T17" si="21">+P13-SUM(P14:P16)</f>
+        <f t="shared" ref="P17:T17" si="22">+P13-SUM(P14:P16)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1511.7560000000001</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-789.22500000000036</v>
       </c>
       <c r="U17" s="1">
@@ -2276,11 +2361,15 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>15.067</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>9.4890000000000008</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2361,11 +2450,15 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>0.64900000000000002</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>5.0940000000000003</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2446,11 +2539,15 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>18.094000000000001</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>-2.4950000000000001</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2531,11 +2628,15 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>-0.73499999999999999</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2616,33 +2717,57 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="G22" s="1">
+        <f t="shared" ref="G22:N22" si="23">+G17+G18-G19-G20+G21</f>
+        <v>-143.24900000000008</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="23"/>
+        <v>1104.441</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="23"/>
+        <v>1095.4899999999998</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="23"/>
+        <v>1392.6819999999998</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="23"/>
+        <v>-39.419000000000018</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1">
-        <f t="shared" ref="P22:T22" si="22">+P17+P18-P19-P20+P21</f>
+        <f t="shared" ref="P22:T22" si="24">+P17+P18-P19-P20+P21</f>
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-1442.9580000000001</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-791.25300000000038</v>
       </c>
       <c r="U22" s="1">
@@ -2713,11 +2838,15 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>-0.35099999999999998</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>-5.6</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2798,11 +2927,15 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>-0.33</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2883,33 +3016,57 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="G25" s="1">
+        <f t="shared" ref="G25:N25" si="25">+G22-G23-G24</f>
+        <v>-142.56800000000007</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="25"/>
+        <v>1104.441</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="25"/>
+        <v>1095.4899999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="25"/>
+        <v>1392.6819999999998</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="25"/>
+        <v>-33.864000000000019</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1">
-        <f t="shared" ref="P25:T25" si="23">+P22-P23-P24</f>
+        <f t="shared" ref="P25:T25" si="26">+P22-P23-P24</f>
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1377.9670000000001</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-802.14200000000039</v>
       </c>
       <c r="U25" s="1">
@@ -3052,29 +3209,56 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="C27" s="8" t="e">
+        <f t="shared" ref="C27:J27" si="27">+C25/C28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="27"/>
+        <v>-0.29947045268838224</v>
+      </c>
+      <c r="H27" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="8">
+        <f>+K25/K28</f>
+        <v>-6.8227562210505355E-2</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="8" t="e">
-        <f t="shared" ref="P27:R27" si="24">+P25/P28</f>
+        <f t="shared" ref="P27:R27" si="28">+P25/P28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="8" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="8" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" s="8">
@@ -3082,11 +3266,11 @@
         <v>-3.1567605088508248</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" ref="T27:U27" si="25">+T25/T28</f>
+        <f t="shared" ref="T27:U27" si="29">+T25/T28</f>
         <v>-1.7339899135104062</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-1.0525589579088475</v>
       </c>
       <c r="V27" s="1"/>
@@ -3153,11 +3337,15 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>476.06700000000001</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>496.339</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -3318,26 +3506,38 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="K30" s="7">
+        <f>+K3/G3-1</f>
+        <v>0.26470588235294112</v>
+      </c>
+      <c r="L30" s="7" t="e">
+        <f t="shared" ref="L30:N30" si="30">+L3/H3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="7" t="e">
-        <f t="shared" ref="Q30:U30" si="26">+Q3/P3-1</f>
+        <f t="shared" ref="Q30:T30" si="31">+Q3/P3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.42105263157894757</v>
       </c>
       <c r="U30" s="7">
@@ -3412,26 +3612,38 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="K31" s="7">
+        <f>+K6/G6-1</f>
+        <v>0.15239583236122645</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" ref="L31:N31" si="32">+L6/H6-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="7" t="e">
-        <f t="shared" ref="Q31:U31" si="27">+Q6/P6-1</f>
+        <f t="shared" ref="Q31:T31" si="33">+Q6/P6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="7" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.60159862028815092</v>
       </c>
       <c r="U31" s="7">
@@ -3506,26 +3718,38 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="K32" s="7">
+        <f>+K8/G8-1</f>
+        <v>0.20148626465319364</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" ref="L32:N32" si="34">+L8/H8-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="7" t="e">
-        <f t="shared" ref="Q32:U35" si="28">+Q8/P8-1</f>
+        <f t="shared" ref="Q32:T35" si="35">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S32" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>1.0395367864560385</v>
       </c>
       <c r="U32" s="7">
@@ -3600,30 +3824,42 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="K33" s="7">
+        <f>+K9/G9-1</f>
+        <v>0.14452549615267141</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" ref="L33:N33" si="36">+L9/H9-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S33" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.48050549554844157</v>
       </c>
       <c r="U33" s="7">
-        <f t="shared" ref="U33:U35" si="29">+U9/T9-1</f>
+        <f t="shared" ref="U33:U35" si="37">+U9/T9-1</f>
         <v>0.23921038768061442</v>
       </c>
       <c r="V33" s="1"/>
@@ -3694,30 +3930,42 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="K34" s="7">
+        <f>+K10/G10-1</f>
+        <v>0.4571774921064502</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" ref="L34:N34" si="38">+L10/H10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-0.11297232711900873</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>4.3223926998810835E-2</v>
       </c>
       <c r="V34" s="1"/>
@@ -3777,41 +4025,53 @@
       <c r="BX34" s="1"/>
     </row>
     <row r="35" spans="2:76" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="9">
+        <f>+K11/G11-1</f>
+        <v>0.19898791144820938</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" ref="L35:N35" si="39">+L11/H11-1</f>
+        <v>-1</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+      <c r="N35" s="9">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S35" s="7" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.63599946618129022</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0.30073337292890545</v>
       </c>
       <c r="V35" s="1"/>
@@ -3874,37 +4134,73 @@
       <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="C36" s="7">
+        <f t="shared" ref="C36:N36" si="40">+C13/C11</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="40"/>
+        <v>0.39568390020051131</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="40"/>
+        <v>0.40105096088460729</v>
+      </c>
+      <c r="L36" s="7" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="7" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="7" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="7" t="e">
-        <f t="shared" ref="P36:U36" si="30">+P13/P11</f>
+        <f t="shared" ref="P36:T36" si="41">+P13/P11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="7" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="7" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.33751446688873415</v>
       </c>
       <c r="T36" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>0.37464413775003114</v>
       </c>
       <c r="U36" s="7">
@@ -3971,37 +4267,73 @@
       <c r="B37" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="C37" s="7">
+        <f t="shared" ref="C37:N37" si="42">+C17/C11</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="42"/>
+        <v>-0.11816040224817795</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="42"/>
+        <v>-3.2886713997526996E-2</v>
+      </c>
+      <c r="L37" s="7" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="7" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="7" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="7" t="e">
-        <f t="shared" ref="P37:U37" si="31">+P17/P11</f>
+        <f t="shared" ref="P37:T37" si="43">+P17/P11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="7" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" s="7" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>-0.67475220501495004</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>-0.21531797545310977</v>
       </c>
       <c r="U37" s="7">
@@ -4068,37 +4400,73 @@
       <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="C38" s="7" t="e">
+        <f t="shared" ref="C38:N38" si="44">+C23/C22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="44"/>
+        <v>2.450278885018393E-3</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="44"/>
+        <v>0.14206347192977997</v>
+      </c>
+      <c r="L38" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="7" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="7" t="e">
-        <f t="shared" ref="P38:U38" si="32">+P23/P22</f>
+        <f t="shared" ref="P38:T38" si="45">+P23/P22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="7" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="7" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>4.7046414379351302E-2</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>-1.2853031836846111E-2</v>
       </c>
       <c r="U38" s="7">

--- a/DKNG.xlsx
+++ b/DKNG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8930DBB2-B34A-4A75-A510-FFD2EB8A6D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F335ABB1-98E2-4225-98C9-C49AFC9D84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AA42F6BA-6E3A-4D2B-837D-B4F01F2F060C}"/>
   </bookViews>
@@ -670,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>42.79</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>496.28563100000002</v>
+        <v>496.47007100000002</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
       </c>
       <c r="G4" s="1">
         <f>+G2*G3</f>
-        <v>21236.062150490001</v>
+        <v>22817.764463160001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -704,10 +704,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="1">
-        <v>1119.74</v>
+        <v>1261.9690000000001</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,11 +715,11 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <f>585.483+1257.086+10.566</f>
-        <v>1853.135</v>
+        <f>578.499+14.205</f>
+        <v>592.70400000000006</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
       </c>
       <c r="G7" s="1">
         <f>+G4-G5+G6</f>
-        <v>21969.457150489998</v>
+        <v>22148.499463160002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,10 +756,10 @@
   <dimension ref="A1:BX243"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +841,17 @@
       <c r="G3" s="1">
         <v>3.4</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>3.1</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
         <v>4.3</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1">
+        <v>3.3</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -930,13 +934,17 @@
       <c r="G4" s="1">
         <v>114</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>117</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
         <v>108</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1">
+        <v>151</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1115,7 +1123,9 @@
       <c r="K6" s="1">
         <v>13830.391</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <v>11474.841</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1196,7 +1206,7 @@
         <v>4.5466847519183541E-2</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" ref="D7:K7" si="0">+D8/D6</f>
+        <f t="shared" ref="D7:L7" si="0">+D8/D6</f>
         <v>6.981961942042493E-2</v>
       </c>
       <c r="E7" s="7">
@@ -1227,7 +1237,10 @@
         <f t="shared" si="0"/>
         <v>6.3769491404834469E-2</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6961727835705951E-2</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1342,7 +1355,9 @@
       <c r="K8" s="1">
         <v>881.95699999999999</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1">
+        <v>997.87199999999996</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1445,7 +1460,9 @@
       <c r="K9" s="1">
         <v>423.471</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1">
+        <v>429.66</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1548,7 +1565,9 @@
       <c r="K10" s="1">
         <v>103.378</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1">
+        <v>84.974999999999994</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1660,36 +1679,35 @@
         <v>1408.806</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L11" si="15">+SUM(L8:L10)</f>
+        <v>1512.5070000000001</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" ref="M11" si="15">+SUM(M8:M10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" ref="M11" si="16">+SUM(M8:M10)</f>
-        <v>0</v>
-      </c>
       <c r="N11" s="6">
-        <f t="shared" ref="N11" si="17">+SUM(N8:N10)</f>
+        <f t="shared" ref="N11" si="16">+SUM(N8:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="6">
-        <f t="shared" ref="P11:T11" si="18">+SUM(P8:P10)</f>
+        <f t="shared" ref="P11:T11" si="17">+SUM(P8:P10)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2240.4610000000002</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3665.393</v>
       </c>
       <c r="U11" s="6">
@@ -1763,13 +1781,17 @@
       <c r="G12" s="1">
         <v>710.06899999999996</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>663.41399999999999</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
         <v>843.803</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1">
+        <v>854.55899999999997</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1847,40 +1869,49 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:J13" si="19">+D11-D12</f>
+        <f t="shared" ref="D13:J13" si="18">+D11-D12</f>
         <v>874.92700000000002</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>789.95699999999999</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1230.857</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>464.92699999999991</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="19"/>
-        <v>1104.441</v>
+        <f t="shared" si="18"/>
+        <v>441.02700000000004</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1095.4899999999998</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1392.6819999999998</v>
       </c>
       <c r="K13" s="1">
         <f>+K11-K12</f>
         <v>565.00300000000004</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13:N13" si="19">+L11-L12</f>
+        <v>657.94800000000009</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1">
         <f t="shared" ref="P13:T13" si="20">+P11-P12</f>
@@ -1973,13 +2004,17 @@
       <c r="G14" s="1">
         <v>340.69900000000001</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>215.67599999999999</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
         <v>343.68</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1">
+        <v>233.18700000000001</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2062,13 +2097,17 @@
       <c r="G15" s="1">
         <v>88.814999999999998</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>92.655000000000001</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
         <v>103.26</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <v>108.417</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2151,13 +2190,17 @@
       <c r="G16" s="1">
         <v>174.251</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>165.084</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
         <v>164.39400000000001</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1">
+        <v>165.7</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2246,7 +2289,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="21"/>
-        <v>1104.441</v>
+        <v>-32.387999999999977</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="21"/>
@@ -2262,7 +2305,7 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>150.64400000000006</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="21"/>
@@ -2364,13 +2407,17 @@
       <c r="G18" s="1">
         <v>15.067</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>14.212</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
         <v>9.4890000000000008</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1">
+        <v>12.305</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2453,13 +2500,17 @@
       <c r="G19" s="1">
         <v>0.64900000000000002</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>0.67800000000000005</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
         <v>5.0940000000000003</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <v>11.64</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2542,13 +2593,17 @@
       <c r="G20" s="1">
         <v>18.094000000000001</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>-9.7910000000000004</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1">
         <v>-2.4950000000000001</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <v>5.851</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2631,13 +2686,17 @@
       <c r="G21" s="1">
         <v>-0.73499999999999999</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>-0.44600000000000001</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <v>24.459</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2723,7 +2782,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="23"/>
-        <v>1104.441</v>
+        <v>-9.5089999999999772</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="23"/>
@@ -2739,7 +2798,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>169.91700000000009</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="23"/>
@@ -2841,13 +2900,17 @@
       <c r="G23" s="1">
         <v>-0.35099999999999998</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>-73.569999999999993</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1">
         <v>-5.6</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1">
+        <v>11.79</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2930,13 +2993,17 @@
       <c r="G24" s="1">
         <v>-0.33</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1">
+        <v>0.191</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3022,7 +3089,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="25"/>
-        <v>1104.441</v>
+        <v>63.822000000000024</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="25"/>
@@ -3038,7 +3105,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>157.93600000000009</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="25"/>
@@ -3229,9 +3296,9 @@
         <f t="shared" si="27"/>
         <v>-0.29947045268838224</v>
       </c>
-      <c r="H27" s="8" t="e">
+      <c r="H27" s="8">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>0.13315474215899209</v>
       </c>
       <c r="I27" s="8" t="e">
         <f t="shared" si="27"/>
@@ -3245,7 +3312,10 @@
         <f>+K25/K28</f>
         <v>-6.8227562210505355E-2</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="8">
+        <f>+L25/L28</f>
+        <v>0.31808779961209804</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3340,13 +3410,17 @@
       <c r="G28" s="1">
         <v>476.06700000000001</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>479.30700000000002</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
         <v>496.339</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1">
+        <v>496.517</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3510,9 +3584,9 @@
         <f>+K3/G3-1</f>
         <v>0.26470588235294112</v>
       </c>
-      <c r="L30" s="7" t="e">
+      <c r="L30" s="7">
         <f t="shared" ref="L30:N30" si="30">+L3/H3-1</f>
-        <v>#DIV/0!</v>
+        <v>6.4516129032258007E-2</v>
       </c>
       <c r="M30" s="7" t="e">
         <f t="shared" si="30"/>
@@ -3618,7 +3692,7 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31:N31" si="32">+L6/H6-1</f>
-        <v>-1</v>
+        <v>6.3172993197266436E-2</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="32"/>
@@ -3724,7 +3798,7 @@
       </c>
       <c r="L32" s="7">
         <f t="shared" ref="L32:N32" si="34">+L8/H8-1</f>
-        <v>-1</v>
+        <v>0.45274127260736452</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="34"/>
@@ -3830,7 +3904,7 @@
       </c>
       <c r="L33" s="7">
         <f t="shared" ref="L33:N33" si="36">+L9/H9-1</f>
-        <v>-1</v>
+        <v>0.22566694812752464</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="36"/>
@@ -3936,7 +4010,7 @@
       </c>
       <c r="L34" s="7">
         <f t="shared" ref="L34:N34" si="38">+L10/H10-1</f>
-        <v>-1</v>
+        <v>0.26828358208955216</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="38"/>
@@ -4042,7 +4116,7 @@
       </c>
       <c r="L35" s="9">
         <f t="shared" ref="L35:N35" si="39">+L11/H11-1</f>
-        <v>-1</v>
+        <v>0.36947740983900457</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="39"/>
@@ -4156,7 +4230,7 @@
       </c>
       <c r="H36" s="7">
         <f t="shared" si="40"/>
-        <v>1</v>
+        <v>0.39932146669672713</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="40"/>
@@ -4170,9 +4244,9 @@
         <f t="shared" si="40"/>
         <v>0.40105096088460729</v>
       </c>
-      <c r="L36" s="7" t="e">
+      <c r="L36" s="7">
         <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
+        <v>0.43500492890280845</v>
       </c>
       <c r="M36" s="7" t="e">
         <f t="shared" si="40"/>
@@ -4289,7 +4363,7 @@
       </c>
       <c r="H37" s="7">
         <f t="shared" si="42"/>
-        <v>1</v>
+        <v>-2.9325242362425858E-2</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="42"/>
@@ -4303,9 +4377,9 @@
         <f t="shared" si="42"/>
         <v>-3.2886713997526996E-2</v>
       </c>
-      <c r="L37" s="7" t="e">
+      <c r="L37" s="7">
         <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
+        <v>9.9598877889490803E-2</v>
       </c>
       <c r="M37" s="7" t="e">
         <f t="shared" si="42"/>
@@ -4422,7 +4496,7 @@
       </c>
       <c r="H38" s="7">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>7.7368808497213344</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="44"/>
@@ -4436,9 +4510,9 @@
         <f t="shared" si="44"/>
         <v>0.14206347192977997</v>
       </c>
-      <c r="L38" s="7" t="e">
+      <c r="L38" s="7">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>6.9386818270096531E-2</v>
       </c>
       <c r="M38" s="7" t="e">
         <f t="shared" si="44"/>
